--- a/results/ML/MLR_cEnroll_nPSU_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3541EAFA-BF25-408F-A19E-166B732C8046}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70418DB8-5F7D-4C70-B5D5-B11707650880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
     <t>x</t>
   </si>
   <si>
-    <t>LangScr, MathScr, SchoolRegion_1, SchoolRegion_2, PostulationType_1</t>
+    <t>Ones, NEMScr, LangScr, MathScr, SchoolRegion_2, MotherEd_4, MotherEd_7, PostulationType_1</t>
   </si>
   <si>
     <t>y</t>
@@ -444,7 +444,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="92.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
@@ -477,7 +477,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>0.68518518518518523</v>
+        <v>0.69444444444444442</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -485,7 +485,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>0.98648648648648651</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>0.68518518518518523</v>
+        <v>0.69523809523809521</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>0.8131868131868133</v>
+        <v>0.81564245810055858</v>
       </c>
     </row>
   </sheetData>

--- a/results/ML/MLR_cEnroll_nPSU_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_vs_Desertor/evaluateRegModel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70418DB8-5F7D-4C70-B5D5-B11707650880}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE122CA-293C-408B-9AB6-F8091C36044C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_cEnroll_nPSU_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE122CA-293C-408B-9AB6-F8091C36044C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2BA7B0-B816-4EB1-B033-1AE794E9EA82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -477,7 +477,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>0.69444444444444442</v>
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -485,7 +485,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>0.98648648648648651</v>
+        <v>0.91891891891891897</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>0.69523809523809521</v>
+        <v>0.69387755102040816</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -501,7 +501,7 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>0.81564245810055858</v>
+        <v>0.79069767441860461</v>
       </c>
     </row>
   </sheetData>

--- a/results/ML/MLR_cEnroll_nPSU_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2BA7B0-B816-4EB1-B033-1AE794E9EA82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F852010-0C9F-4F24-B814-45938B33C5B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_cEnroll_nPSU_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_vs_Desertor/evaluateRegModel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F852010-0C9F-4F24-B814-45938B33C5B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A939AA1-4020-4D7E-8426-FFEC8BA1D286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16800" yWindow="0" windowWidth="12000" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>

--- a/results/ML/MLR_cEnroll_nPSU_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_vs_Desertor/evaluateRegModel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A939AA1-4020-4D7E-8426-FFEC8BA1D286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98D553C-870A-46E1-89E0-A4CE14D4CFC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/results/ML/MLR_cEnroll_nPSU_vs_Desertor/evaluateRegModel.xlsx
+++ b/results/ML/MLR_cEnroll_nPSU_vs_Desertor/evaluateRegModel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Reference\models\desertorstudent\results\ML\MLR_cEnroll_nPSU_vs_Desertor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C98D553C-870A-46E1-89E0-A4CE14D4CFC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD2E475-AB82-408C-BFF2-C906574C2C21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="690" yWindow="0" windowWidth="16800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Indicators" sheetId="1" r:id="rId1"/>
